--- a/PMP/old/EmpiricDistributionGEAR.xlsx
+++ b/PMP/old/EmpiricDistributionGEAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R.GISPython\PMP\old\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E195FC94-DC6D-4F22-8551-E2856A2C8910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0E7873-C202-4AD4-B96C-D90201533299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6AD953D4-08B0-453C-A289-7306DE8A5A20}"/>
   </bookViews>
@@ -379,7 +379,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -422,10 +422,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1113,8 +1112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF1CB56B-5D4E-483F-ADE9-184DBA3912E4}">
   <dimension ref="B3:U14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="V6" sqref="V6:Y14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1128,7 +1127,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1139,10 +1138,10 @@
         <v>2</v>
       </c>
       <c r="E5" s="12"/>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="20"/>
+      <c r="G5" s="19"/>
       <c r="H5" s="11" t="s">
         <v>7</v>
       </c>
@@ -1249,7 +1248,7 @@
         <f>1/D7</f>
         <v>20</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="20">
         <f>(C7+0.3)/($C$11+0.4)</f>
         <v>6.3725490196078441E-2</v>
       </c>
@@ -1329,7 +1328,7 @@
         <f>1/D8</f>
         <v>10</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="20">
         <f t="shared" ref="F8:F10" si="0">(C8+0.3)/($C$11+0.4)</f>
         <v>0.11274509803921569</v>
       </c>
@@ -1342,7 +1341,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I8" s="5">
-        <f t="shared" ref="I8:I10" si="1">1/H8</f>
+        <f>1/H8</f>
         <v>13.333333333333334</v>
       </c>
       <c r="J8" s="4">
@@ -1350,7 +1349,7 @@
         <v>9.5238095238095233E-2</v>
       </c>
       <c r="K8" s="5">
-        <f t="shared" ref="K8:M10" si="2">1/J8</f>
+        <f t="shared" ref="K8:M10" si="1">1/J8</f>
         <v>10.5</v>
       </c>
       <c r="L8" s="4">
@@ -1358,7 +1357,7 @@
         <v>8.0246913580246909E-2</v>
       </c>
       <c r="M8" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12.461538461538462</v>
       </c>
       <c r="N8" s="4">
@@ -1366,7 +1365,7 @@
         <v>8.1967213114754092E-2</v>
       </c>
       <c r="O8" s="5">
-        <f t="shared" ref="O8:Q10" si="3">1/N8</f>
+        <f t="shared" ref="O8:Q10" si="2">1/N8</f>
         <v>12.200000000000001</v>
       </c>
       <c r="P8" s="4">
@@ -1374,15 +1373,15 @@
         <v>7.7534791252485094E-2</v>
       </c>
       <c r="Q8" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>12.897435897435896</v>
       </c>
       <c r="R8" s="4">
-        <f t="shared" ref="R8:R10" si="4">(C8-0.31)/(C12+0.38)</f>
+        <f t="shared" ref="R8:R10" si="3">(C8-0.31)/(C12+0.38)</f>
         <v>4.447368421052631</v>
       </c>
       <c r="S8" s="5">
-        <f t="shared" ref="S8" si="5">1/R8</f>
+        <f t="shared" ref="S8" si="4">1/R8</f>
         <v>0.2248520710059172</v>
       </c>
       <c r="T8" s="4">
@@ -1390,7 +1389,7 @@
         <v>7.9207920792079209E-2</v>
       </c>
       <c r="U8" s="5">
-        <f t="shared" ref="U8:U10" si="6">1/T8</f>
+        <f t="shared" ref="U8:U10" si="5">1/T8</f>
         <v>12.625</v>
       </c>
     </row>
@@ -1406,15 +1405,15 @@
         <v>0.15</v>
       </c>
       <c r="E9" s="5">
-        <f t="shared" ref="E9:G10" si="7">1/D9</f>
+        <f t="shared" ref="E9:G10" si="6">1/D9</f>
         <v>6.666666666666667</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="20">
         <f t="shared" si="0"/>
         <v>0.16176470588235295</v>
       </c>
       <c r="G9" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>6.1818181818181817</v>
       </c>
       <c r="H9" s="4">
@@ -1422,7 +1421,7 @@
         <v>0.125</v>
       </c>
       <c r="I9" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I8:I10" si="7">1/H9</f>
         <v>8</v>
       </c>
       <c r="J9" s="4">
@@ -1430,7 +1429,7 @@
         <v>0.14285714285714285</v>
       </c>
       <c r="K9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="L9" s="4">
@@ -1438,7 +1437,7 @@
         <v>0.12962962962962962</v>
       </c>
       <c r="M9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7.7142857142857144</v>
       </c>
       <c r="N9" s="4">
@@ -1446,7 +1445,7 @@
         <v>0.13114754098360656</v>
       </c>
       <c r="O9" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7.625</v>
       </c>
       <c r="P9" s="4">
@@ -1454,11 +1453,11 @@
         <v>0.1272365805168986</v>
       </c>
       <c r="Q9" s="5">
+        <f t="shared" si="2"/>
+        <v>7.8593750000000009</v>
+      </c>
+      <c r="R9" s="4">
         <f t="shared" si="3"/>
-        <v>7.8593750000000009</v>
-      </c>
-      <c r="R9" s="4">
-        <f t="shared" si="4"/>
         <v>7.0789473684210522</v>
       </c>
       <c r="S9" s="5">
@@ -1470,7 +1469,7 @@
         <v>0.12871287128712872</v>
       </c>
       <c r="U9" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>7.7692307692307692</v>
       </c>
     </row>
@@ -1486,15 +1485,15 @@
         <v>0.2</v>
       </c>
       <c r="E10" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="21">
         <f t="shared" si="0"/>
         <v>0.2107843137254902</v>
       </c>
       <c r="G10" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>4.7441860465116275</v>
       </c>
       <c r="H10" s="6">
@@ -1502,7 +1501,7 @@
         <v>0.17499999999999999</v>
       </c>
       <c r="I10" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>5.7142857142857144</v>
       </c>
       <c r="J10" s="6">
@@ -1510,7 +1509,7 @@
         <v>0.19047619047619047</v>
       </c>
       <c r="K10" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.25</v>
       </c>
       <c r="L10" s="6">
@@ -1518,7 +1517,7 @@
         <v>0.17901234567901234</v>
       </c>
       <c r="M10" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.5862068965517242</v>
       </c>
       <c r="N10" s="6">
@@ -1526,7 +1525,7 @@
         <v>0.18032786885245902</v>
       </c>
       <c r="O10" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.545454545454545</v>
       </c>
       <c r="P10" s="6">
@@ -1534,11 +1533,11 @@
         <v>0.17693836978131211</v>
       </c>
       <c r="Q10" s="7">
+        <f t="shared" si="2"/>
+        <v>5.6516853932584272</v>
+      </c>
+      <c r="R10" s="6">
         <f t="shared" si="3"/>
-        <v>5.6516853932584272</v>
-      </c>
-      <c r="R10" s="6">
-        <f t="shared" si="4"/>
         <v>9.7105263157894726</v>
       </c>
       <c r="S10" s="7">
@@ -1550,11 +1549,11 @@
         <v>0.17821782178217824</v>
       </c>
       <c r="U10" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>5.6111111111111107</v>
       </c>
     </row>
-    <row r="11" spans="2:21" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B11" s="16" t="s">
         <v>10</v>
       </c>
